--- a/biology/Médecine/Nise,_le_cœur_de_la_folie/Nise,_le_cœur_de_la_folie.xlsx
+++ b/biology/Médecine/Nise,_le_cœur_de_la_folie/Nise,_le_cœur_de_la_folie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nise,_le_c%C5%93ur_de_la_folie</t>
+          <t>Nise,_le_cœur_de_la_folie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nise, le cœur de la folie (Nise: O Coração da Loucura) est un film brésilien réalisé par Roberto Berliner, sorti en 2015.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nise,_le_c%C5%93ur_de_la_folie</t>
+          <t>Nise,_le_cœur_de_la_folie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1944, le docteur Nise da Silveira intègre un hôpital psychiatrique dans la banlieue de Rio de Janeiro et refuse d'utiliser l'électroconvulsivothérapie et la lobotomie pour traiter les personnes schizophrénes.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nise,_le_c%C5%93ur_de_la_folie</t>
+          <t>Nise,_le_cœur_de_la_folie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Nise, le cœur de la folie
 Titre original : Nise: O Coração da Loucura
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nise,_le_c%C5%93ur_de_la_folie</t>
+          <t>Nise,_le_cœur_de_la_folie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +602,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Glória Pires: Nise da Silveira
 Luciana Fregolente (pt) : Eugênia
@@ -620,7 +638,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nise,_le_c%C5%93ur_de_la_folie</t>
+          <t>Nise,_le_cœur_de_la_folie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -638,9 +656,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film a été nommé pour sept Grande Prêmio do Cinema Brasileiro et a remporté celui du meilleur second rôle masculin pour Flavio Bauraqui[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film a été nommé pour sept Grande Prêmio do Cinema Brasileiro et a remporté celui du meilleur second rôle masculin pour Flavio Bauraqui.
 </t>
         </is>
       </c>
